--- a/ITP/Theorie/K5_LE2_EVA.xlsx
+++ b/ITP/Theorie/K5_LE2_EVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\2023_24_4BHITS\ITP\Theorie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CDE6E-0A1E-4BD1-A992-A2F195CDAC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940741E2-3376-4733-B424-333DF3E66FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVA-Angabe" sheetId="1" r:id="rId1"/>
@@ -121,8 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="[$EUR]\ #,##0.00"/>
   </numFmts>
   <fonts count="13">
@@ -208,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -358,21 +357,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -403,21 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -438,7 +407,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -455,24 +424,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -500,20 +457,411 @@
     <xf numFmtId="165" fontId="11" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -524,6 +872,2391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IK</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$D$6:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-156C-406D-A866-C2AE919830B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>PK</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$EUR]\ #,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-156C-406D-A866-C2AE919830B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>EV</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>[$EUR]\ #,##0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>23749.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37612.499999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71539.999999999985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-156C-406D-A866-C2AE919830B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641441023"/>
+        <c:axId val="1641437183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641441023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Monate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641437183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641437183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Kosten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641441023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>CR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>CR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$L$6:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7520833333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55795157068062817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69838102409638558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92370487483530916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0521739130434784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0447470817120623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A26B-477D-85ED-FEB58A5892C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>KEI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.79166666666666652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65641361256544495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77597891566265065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94255599472990759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0447470817120623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A26B-477D-85ED-FEB58A5892C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TEI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EVA-Angabe'!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.94999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A26B-477D-85ED-FEB58A5892C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1641510143"/>
+        <c:axId val="1641499103"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1641510143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641499103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1641499103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641510143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>720090</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95DD735-6AAD-0775-89C3-28D1D70AB4E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1398270</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3989D3EA-86E9-782B-9D97-B2DCE2E57B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -881,7 +3614,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="13.2"/>
@@ -889,9 +3622,9 @@
     <col min="1" max="2" width="9.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.19921875" style="3" customWidth="1"/>
     <col min="4" max="5" width="11" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.3984375" style="30" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="18.3984375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="17.09765625" style="26" customWidth="1"/>
     <col min="9" max="12" width="11" style="3" customWidth="1"/>
     <col min="13" max="16384" width="10.8984375" style="3"/>
   </cols>
@@ -904,9 +3637,9 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -918,9 +3651,9 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -938,9 +3671,9 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -952,365 +3685,415 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="28">
         <v>0.18621973929236499</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="25">
         <f>$B$3*B6</f>
         <v>25000</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>30000</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="28">
         <v>0.17690875232774672</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <f>$B$3*E6</f>
         <v>23749.999999999996</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="27">
         <f>F6-D6</f>
         <v>-6250.0000000000036</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <f>F6-C6</f>
         <v>-1250.0000000000036</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="28">
         <f>F6/D6</f>
         <v>0.79166666666666652</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="28">
         <f>F6/C6</f>
         <v>0.94999999999999984</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="28">
         <f>D6/C6</f>
         <v>1.2</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="29">
         <f>I6*J6</f>
         <v>0.7520833333333331</v>
       </c>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="28">
         <v>0.32960893854748602</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="25">
         <f t="shared" ref="C7:C11" si="0">$B$3*B7</f>
         <v>44250</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="13">
         <v>57300</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="28">
         <v>0.2801675977653631</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <f t="shared" ref="F7:F11" si="1">$B$3*E7</f>
         <v>37612.499999999993</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="27">
         <f t="shared" ref="G7:G11" si="2">F7-D7</f>
         <v>-19687.500000000007</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="27">
         <f t="shared" ref="H7:H11" si="3">F7-C7</f>
         <v>-6637.5000000000073</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="28">
         <f t="shared" ref="I7:I11" si="4">F7/D7</f>
         <v>0.65641361256544495</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="28">
         <f t="shared" ref="J7:J11" si="5">F7/C7</f>
         <v>0.84999999999999987</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="28">
         <f t="shared" ref="K7:K11" si="6">D7/C7</f>
         <v>1.2949152542372881</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="29">
         <f t="shared" ref="L7:L11" si="7">I7*J7</f>
         <v>0.55795157068062817</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="28">
         <v>0.42644320297951582</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>57250</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>66400</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="28">
         <v>0.38379888268156426</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="25">
         <f t="shared" si="1"/>
         <v>51525</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="27">
         <f t="shared" si="2"/>
         <v>-14875</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <f t="shared" si="3"/>
         <v>-5725</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <f t="shared" si="4"/>
         <v>0.77597891566265065</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="28">
         <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="28">
         <f t="shared" si="6"/>
         <v>1.1598253275109169</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="29">
         <f t="shared" si="7"/>
         <v>0.69838102409638558</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="28">
         <v>0.54376163873370575</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>73000</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="13">
         <v>75900</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="28">
         <v>0.53288640595903158</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <f t="shared" si="1"/>
         <v>71539.999999999985</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="27">
         <f t="shared" si="2"/>
         <v>-4360.0000000000146</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="27">
         <f t="shared" si="3"/>
         <v>-1460.0000000000146</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="28">
         <f t="shared" si="4"/>
         <v>0.94255599472990759</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="28">
         <f t="shared" si="5"/>
         <v>0.97999999999999976</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="28">
         <f t="shared" si="6"/>
         <v>1.0397260273972602</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="29">
         <f t="shared" si="7"/>
         <v>0.92370487483530916</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="28">
         <v>0.74487895716945995</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="13">
         <v>115000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="28">
         <v>0.81936685288640598</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <f t="shared" si="1"/>
         <v>110000</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="27">
         <f t="shared" si="2"/>
         <v>-5000</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="28">
         <f t="shared" si="4"/>
         <v>0.95652173913043481</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="28">
         <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="28">
         <f t="shared" si="6"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="L10" s="33">
+      <c r="L10" s="29">
         <f t="shared" si="7"/>
         <v>1.0521739130434784</v>
       </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" ht="27.9" customHeight="1">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="28">
         <v>1</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>134250</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="13">
         <v>128500</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="28">
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <f t="shared" si="1"/>
         <v>134250</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="27">
         <f t="shared" si="2"/>
         <v>5750</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="28">
         <f t="shared" si="4"/>
         <v>1.0447470817120623</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="28">
         <f t="shared" si="6"/>
         <v>0.95716945996275604</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="29">
         <f t="shared" si="7"/>
         <v>1.0447470817120623</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" ht="6.9" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I6:I11">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:L11">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B11">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E11">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.49" footer="0.49"/>
   <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -1329,12 +4112,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA3272E0047C2949B99787A01A00D534" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b768dde201fdf9915fde7954f0db1273">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3747029-0692-468b-ad2f-5ba4a57d62c6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76b4d470ac499669752246e9ed36466e" ns2:_="">
     <xsd:import namespace="c3747029-0692-468b-ad2f-5ba4a57d62c6"/>
@@ -1478,6 +4255,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65373BE9-EF55-4959-BB88-785626BAB72B}">
   <ds:schemaRefs>
@@ -1487,15 +4270,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14698124-2F8D-4D11-B73B-C7D8013E3F78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09439BC9-556E-4082-A135-156445FAC5B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1511,4 +4285,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14698124-2F8D-4D11-B73B-C7D8013E3F78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="c3747029-0692-468b-ad2f-5ba4a57d62c6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>